--- a/附加文件/功能说明.xlsx
+++ b/附加文件/功能说明.xlsx
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/附加文件/功能说明.xlsx
+++ b/附加文件/功能说明.xlsx
@@ -329,10 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>void reverse（char* matrix_name）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,33 +374,6 @@
   </si>
   <si>
     <t>根据错误代码返回错误信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>void inverse（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>char* matrix_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -862,6 +831,26 @@
   </si>
   <si>
     <t>det</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>void reverse（char* matrix_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void trans（char* matrix_name）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1246,7 +1235,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1255,50 +1244,50 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1315,13 +1304,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1330,7 +1319,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1338,13 +1327,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1355,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1369,13 +1358,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1386,81 +1375,81 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1468,13 +1457,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1485,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1496,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1507,7 +1496,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1518,7 +1507,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -1529,35 +1518,35 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1565,13 +1554,13 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1582,27 +1571,27 @@
         <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1610,16 +1599,16 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
         <v>146</v>
-      </c>
-      <c r="F29" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1630,13 +1619,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1653,78 +1642,78 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="C37" t="s">
-        <v>131</v>
-      </c>
       <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
         <v>153</v>
-      </c>
-      <c r="F37" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="C38" t="s">
-        <v>132</v>
-      </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1746,12 +1735,12 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>44</v>
@@ -1762,7 +1751,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1782,7 +1771,7 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -1790,7 +1779,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -1798,7 +1787,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -1809,7 +1798,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -1820,7 +1809,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -1836,12 +1825,12 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>26</v>
@@ -1849,7 +1838,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>28</v>
@@ -1860,7 +1849,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -1880,15 +1869,15 @@
         <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -1896,7 +1885,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -1933,10 +1922,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -1947,12 +1936,12 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>50</v>
@@ -1960,10 +1949,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -1971,103 +1960,103 @@
         <v>60</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
